--- a/hypersim9buses/res_comparison.xlsx
+++ b/hypersim9buses/res_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original2\datagen\hypersim9buses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39BB76-5B10-40D4-B0FE-12F47479C902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514CE1BE-ECC4-484F-944D-6A2F6D3735A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{F20A75AF-9DB5-43AE-AB3E-7E2874DA07E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="9060" xr2:uid="{F20A75AF-9DB5-43AE-AB3E-7E2874DA07E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Hypersim Load Flow</t>
   </si>
@@ -75,9 +75,6 @@
     <t>1 (slack)</t>
   </si>
   <si>
-    <t>P (MW) and Q (MVA)</t>
-  </si>
-  <si>
     <t>S from bus - to bus</t>
   </si>
   <si>
@@ -135,31 +132,49 @@
     <t>8 --&gt;9</t>
   </si>
   <si>
-    <t xml:space="preserve"> (40.85335603250406+25.94809899714568j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (30.849372682698895+3.8745150426584267j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (-84.42074483007589-8.242370386017035j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (-59.32681107772284-10.526008860653313j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (76.2621513539874+0.7152384871459059j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (-24.213212946989664-22.78747418697516j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (71.7481177568751+31.51978969348403j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (163.00000000000003+0.13128394200740226j)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (84.99999999999986-17.26639265179796j)</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P [pu] and Q [pu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (40.972104273023994+24.1205970196276j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (30.686138897946357+0.939541998479977j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-84.29358682370247-10.195916245819182j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-59.48000100766353-13.565171582565997j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (76.40103538199077-1.1597901308185465j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-24.07502104601418-24.691386152043655j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (71.658243170971+28.218766136497837j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (162.99999999999991+8.305047910737633j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (84.99999999999991-10.287994225762997j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypersim Load Flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GridCal Load Flow </t>
+  </si>
+  <si>
+    <t>(P + jQ)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -198,23 +213,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,6 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,50 +552,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F9E46A-7B72-4944-BBA4-CD8C5AC30C51}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -592,12 +608,12 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1.0400084177</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -608,14 +624,14 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>7.6624947892558799</v>
-      </c>
-      <c r="F4" s="3">
+        <v>9.2957531675432499</v>
+      </c>
+      <c r="F4" s="2">
         <v>1.0250109705999999</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -623,17 +639,17 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0249999999999999</v>
+        <v>1.0249999999999899</v>
       </c>
       <c r="E5" s="1">
-        <v>4.5049121952139499</v>
-      </c>
-      <c r="F5" s="3">
+        <v>4.6656512104049401</v>
+      </c>
+      <c r="F5" s="2">
         <v>1.0250260507</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -641,17 +657,17 @@
         <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0313782776943901</v>
+        <v>1.0251396806969699</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.1154909568854501</v>
-      </c>
-      <c r="F6" s="3">
+        <v>-2.2187237523682999</v>
+      </c>
+      <c r="F6" s="2">
         <v>1.0260625273999999</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,17 +675,17 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>0.99877571725952796</v>
+        <v>0.993949939592354</v>
       </c>
       <c r="E7" s="1">
-        <v>-2.8508143291941899</v>
-      </c>
-      <c r="F7" s="3">
+        <v>-3.98968471380718</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.99617175042999995</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -677,17 +693,17 @@
         <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0156612895150301</v>
+        <v>1.0120912497850301</v>
       </c>
       <c r="E8" s="1">
-        <v>-2.55382751704634</v>
-      </c>
-      <c r="F8" s="3">
+        <v>-3.6911391055883702</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.0131601511999999</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -695,17 +711,17 @@
         <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0261816017038199</v>
+        <v>1.0247671712801201</v>
       </c>
       <c r="E9" s="1">
-        <v>4.8698996472055498</v>
-      </c>
-      <c r="F9" s="3">
+        <v>3.7299938170071099</v>
+      </c>
+      <c r="F9" s="2">
         <v>1.0258585228999999</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -713,17 +729,17 @@
         <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>1.01523230506009</v>
+        <v>1.0151391731819399</v>
       </c>
       <c r="E10" s="1">
-        <v>1.88879755839704</v>
-      </c>
-      <c r="F10" s="3">
+        <v>0.73009281473746002</v>
+      </c>
+      <c r="F10" s="2">
         <v>1.0160131159000001</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -731,220 +747,301 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>1.03025015410973</v>
+        <v>1.03202643126565</v>
       </c>
       <c r="E11" s="1">
-        <v>3.14755337744247</v>
-      </c>
-      <c r="F11" s="3">
+        <v>1.9667705064334799</v>
+      </c>
+      <c r="F11" s="2">
         <v>1.0324282646</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>71.825999999999993</v>
+        <v>0.71826000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>26.602</v>
+        <v>0.26601999999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>0.71748117756875096</v>
+        <v>0.71658243170971003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.31519789693484002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.28218766136497803</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.71485021028999995</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.27954671114000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>163</v>
+        <v>1.63</v>
       </c>
       <c r="C16" s="1">
-        <v>6.5359999999999996</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>1.63</v>
+        <v>1.6299999999999899</v>
       </c>
       <c r="E16" s="1">
-        <v>1.3128394200740199E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8.3050479107376299E-2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1.6281972009000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>9.6036394238999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C17" s="1">
-        <v>-10.961</v>
+        <v>-0.10961</v>
       </c>
       <c r="D17" s="1">
-        <v>0.84999999999999798</v>
+        <v>0.84999999999999898</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.17266392651797899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+        <v>-0.102879942257629</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.85065746941999998</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-9.3338333139999993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.41036048000000003</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.2264456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.30862334000000002</v>
+      </c>
+      <c r="I23" s="9">
+        <v>7.7744287500000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9">
+        <v>-0.84227655999999995</v>
+      </c>
+      <c r="I24" s="9">
+        <v>-0.11510204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="9">
+        <v>-0.59313744000000002</v>
+      </c>
+      <c r="I25" s="9">
+        <v>-0.13677176999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.76427431999999995</v>
+      </c>
+      <c r="I26" s="9">
+        <v>-8.57090875E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="9">
+        <v>-0.24055102</v>
+      </c>
+      <c r="I27" s="9">
+        <v>-0.24332992000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>44</v>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D21:G21"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B2:C2"/>
@@ -952,6 +1049,7 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/hypersim9buses/res_comparison.xlsx
+++ b/hypersim9buses/res_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original2\datagen\hypersim9buses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\hp2c-dt\datagen\hypersim9buses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514CE1BE-ECC4-484F-944D-6A2F6D3735A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96166F-0E3B-49F5-99FE-A277AFDC47FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="9060" xr2:uid="{F20A75AF-9DB5-43AE-AB3E-7E2874DA07E7}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8520" xr2:uid="{F20A75AF-9DB5-43AE-AB3E-7E2874DA07E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,13 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,31 +554,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F9E46A-7B72-4944-BBA4-CD8C5AC30C51}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -613,7 +613,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -631,7 +631,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -649,7 +649,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -703,7 +703,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -721,7 +721,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,18 +757,18 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -801,14 +801,14 @@
       <c r="E15" s="1">
         <v>0.28218766136497803</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>0.71485021028999995</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>0.27954671114000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1.63</v>
       </c>
       <c r="C16" s="1">
-        <v>0.65359999999999996</v>
+        <v>6.5360000000000001E-2</v>
       </c>
       <c r="D16" s="1">
         <v>1.6299999999999899</v>
@@ -824,14 +824,14 @@
       <c r="E16" s="1">
         <v>8.3050479107376299E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>1.6281972009000001</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>9.6036394238999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -847,25 +847,25 @@
       <c r="E17" s="1">
         <v>-0.102879942257629</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>0.85065746941999998</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>-9.3338333139999993E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
@@ -881,19 +881,19 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="1" t="s">
         <v>35</v>
       </c>
@@ -901,7 +901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -911,14 +911,14 @@
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <v>0.41036048000000003</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>0.2264456</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -928,14 +928,14 @@
       <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <v>0.30862334000000002</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>7.7744287500000004E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -945,14 +945,14 @@
       <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="7">
         <v>-0.84227655999999995</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>-0.11510204</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -962,14 +962,14 @@
       <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <v>-0.59313744000000002</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>-0.13677176999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -979,14 +979,14 @@
       <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>0.76427431999999995</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>-8.57090875E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -996,14 +996,14 @@
       <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <v>-0.24055102</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>-0.24332992000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
